--- a/iFermentAsWbifida.xlsx
+++ b/iFermentAsWbifida.xlsx
@@ -1210,7 +1210,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.01647178444331563</v>
+        <v>-3.542003062378954e-14</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.03924758515505806</v>
+        <v>-0.02090286107912208</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.03924758515505805</v>
+        <v>-0.02090286107912208</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.003457041179461431</v>
+        <v>0.0009501300490622643</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.003457041179461432</v>
+        <v>0.0009501300490622644</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.05226232841891227</v>
+        <v>-0.02185299112814893</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-0.9999999999999983</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.9682765632943552</v>
+        <v>0.9851779712348125</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.9125571936959815</v>
+        <v>0.9642751101557259</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.9125571936959815</v>
+        <v>0.9642751101557259</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.9125571936959814</v>
+        <v>0.9642751101557259</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.596542958820536</v>
+        <v>1.816624900533283</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.596542958820536</v>
+        <v>-1.816624900533284</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.436705643111334</v>
+        <v>-1.741944678677917</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.436705643111334</v>
+        <v>1.741944678677917</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.5053622964643509</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.03538383324860186</v>
+        <v>0.01653226285347811</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.05246568378240964</v>
+        <v>-0.5902445397213584</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.4653499447736746</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-0.06893746822572527</v>
+        <v>0.5902445397213939</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.4471784443314684</v>
+        <v>1.27961139680996</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.1494079502131859</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.1494079502131858</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.1494079502131858</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>0.1494079502131859</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>0.1494079502131859</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>0.1494079502131859</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>0.1494079502131859</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>0.1494079502131859</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>0.1494079502131859</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>0.1494079502131859</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.1494079502131859</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.1494079502131859</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>0.1494079502131859</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>0.1494079502131859</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>9.088154550076236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>1.244907896768409</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>-1.244907896768409</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>1.244907896768409</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.4471784443314684</v>
+        <v>0.4829273506811085</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>3.607320793085909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-3.370615149974573</v>
+        <v>-1.400610458556501</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>3.370615149974573</v>
+        <v>1.400610458556501</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.9285205897305565</v>
+        <v>1.048587275383301</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.6729028978139283</v>
+        <v>-1.385075832254562</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.6729028978139283</v>
+        <v>1.385075832254562</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.1427554651753939</v>
+        <v>0.06669912944334273</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.1427554651753939</v>
+        <v>0.06669912944334273</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.04514489069649202</v>
+        <v>0.02109288708892035</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>0.02109288708892035</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>-7.803729132524266e-16</v>
+        <v>4.728572121238923e-16</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-6.767463141840349</v>
+        <v>1.105381299065313</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-1.051753940010165</v>
+        <v>-0.4914072613689011</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1.051753940010165</v>
+        <v>0.4914072613689011</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.02562277580071169</v>
+        <v>-0.01197163861803588</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.02562277580071168</v>
+        <v>0.01197163861803588</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.1708185053380779</v>
+        <v>0.07981092412023919</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.5783426537874925</v>
+        <v>0.2702169859499527</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.1049313675648182</v>
+        <v>-0.04902671053100444</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.1049313675648182</v>
+        <v>0.04902671053100444</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.1220132180986271</v>
+        <v>0.05700780294302799</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.1220132180986271</v>
+        <v>0.05700780294302798</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.03538383324860186</v>
+        <v>0.01653226285347811</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>0.4653499447736746</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>0.1494079502131859</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.8931367564819547</v>
+        <v>0.4172971175429629</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.7851550584646669</v>
+        <v>2.052280905949007</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-4.392475851550575</v>
+        <v>-2.052280905949007</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>-0.3244534824605992</v>
+        <v>-0.1841352035059804</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.0696492119979665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.9999999999999982</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.04514489069649202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>9.088154550076235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:2">

--- a/iFermentAsWbifida.xlsx
+++ b/iFermentAsWbifida.xlsx
@@ -1210,7 +1210,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-3.542003062378954e-14</v>
+        <v>0.01647178444331563</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.02090286107912208</v>
+        <v>-0.03924758515505806</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.02090286107912208</v>
+        <v>-0.03924758515505805</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.0009501300490622643</v>
+        <v>-0.003457041179461431</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.0009501300490622644</v>
+        <v>-0.003457041179461432</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.02185299112814893</v>
+        <v>-0.05226232841891227</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>-0.9999999999999983</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.9851779712348125</v>
+        <v>0.9682765632943552</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.9642751101557259</v>
+        <v>0.9125571936959815</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.9642751101557259</v>
+        <v>0.9125571936959815</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.9642751101557259</v>
+        <v>0.9125571936959814</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.816624900533283</v>
+        <v>1.596542958820536</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.816624900533284</v>
+        <v>-1.596542958820536</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.741944678677917</v>
+        <v>-1.436705643111334</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.741944678677917</v>
+        <v>1.436705643111334</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.5053622964643509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.01653226285347811</v>
+        <v>0.03538383324860186</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-0.5902445397213584</v>
+        <v>0.05246568378240964</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.4653499447736746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.5902445397213939</v>
+        <v>-0.06893746822572527</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.27961139680996</v>
+        <v>0.4471784443314684</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.1494079502131859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.1494079502131858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.1494079502131858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.1494079502131859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.1494079502131859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.1494079502131859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.1494079502131859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.1494079502131859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.1494079502131859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.1494079502131859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.1494079502131859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.1494079502131859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.1494079502131859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.1494079502131859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>9.088154550076236</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1.244907896768409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-1.244907896768409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1.244907896768409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.4829273506811085</v>
+        <v>0.4471784443314684</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>3.607320793085909</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-1.400610458556501</v>
+        <v>-3.370615149974573</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1.400610458556501</v>
+        <v>3.370615149974573</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1.048587275383301</v>
+        <v>0.9285205897305565</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-1.385075832254562</v>
+        <v>-0.6729028978139283</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1.385075832254562</v>
+        <v>0.6729028978139283</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.06669912944334273</v>
+        <v>0.1427554651753939</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.06669912944334273</v>
+        <v>0.1427554651753939</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.02109288708892035</v>
+        <v>0.04514489069649202</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.02109288708892035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>4.728572121238923e-16</v>
+        <v>-7.803729132524266e-16</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>1.105381299065313</v>
+        <v>-6.767463141840349</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-0.4914072613689011</v>
+        <v>-1.051753940010165</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.4914072613689011</v>
+        <v>1.051753940010165</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.01197163861803588</v>
+        <v>-0.02562277580071169</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.01197163861803588</v>
+        <v>0.02562277580071168</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.07981092412023919</v>
+        <v>0.1708185053380779</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.2702169859499527</v>
+        <v>0.5783426537874925</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.04902671053100444</v>
+        <v>-0.1049313675648182</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.04902671053100444</v>
+        <v>0.1049313675648182</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.05700780294302799</v>
+        <v>0.1220132180986271</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.05700780294302798</v>
+        <v>0.1220132180986271</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.01653226285347811</v>
+        <v>0.03538383324860186</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.4653499447736746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.1494079502131859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>0.4172971175429629</v>
+        <v>0.8931367564819547</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>2.052280905949007</v>
+        <v>0.7851550584646669</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-2.052280905949007</v>
+        <v>-4.392475851550575</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>-0.1841352035059804</v>
+        <v>-0.3244534824605992</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>-0.0696492119979665</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999982</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0</v>
+        <v>0.04514489069649202</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>9.088154550076235</v>
       </c>
     </row>
     <row r="243" spans="1:2">

--- a/iFermentAsWbifida.xlsx
+++ b/iFermentAsWbifida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>fluxes</t>
   </si>
@@ -767,6 +767,12 @@
   </si>
   <si>
     <t>FMNRx</t>
+  </si>
+  <si>
+    <t>CDH</t>
+  </si>
+  <si>
+    <t>BE</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1234,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.01647178444331657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1236,7 +1242,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.03924758515505788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1244,7 +1250,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.03924758515505787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1252,7 +1258,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.00345704117946174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1260,7 +1266,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.00345704117946174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1268,7 +1274,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-0.05226232841891272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1276,7 +1282,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-1.000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1308,7 +1314,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.9682765632943577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1324,7 +1330,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.9125571936959835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1332,7 +1338,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.9125571936959835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1340,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.9125571936959835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1348,7 +1354,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.59654295882054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1356,7 +1362,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-1.59654295882054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1364,7 +1370,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.436705643111338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1372,7 +1378,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.436705643111338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1444,7 +1450,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.03538383324860195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1452,7 +1458,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.0524656837824098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1468,7 +1474,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-0.06893746822572637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1484,7 +1490,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.4471784443314688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2068,7 +2074,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.4471784443314688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2076,7 +2082,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>3.607320793085921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2084,7 +2090,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>-3.370615149974586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2092,7 +2098,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>3.370615149974586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2108,7 +2114,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>-0.6729028978139291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2116,7 +2122,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.6729028978139291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2140,7 +2146,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.1427554651753944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2156,7 +2162,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.1427554651753941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2164,7 +2170,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.04514489069649216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2212,7 +2218,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1.316902993767155e-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2220,7 +2226,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-6.767463141840373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2228,7 +2234,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-1.051753940010168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2236,7 +2242,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1.051753940010168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2244,7 +2250,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>-0.02562277580071177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2252,7 +2258,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.02562277580071176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2260,7 +2266,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.1708185053380784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2268,7 +2274,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.5783426537874942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2276,7 +2282,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-0.1049313675648207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2284,7 +2290,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.1049313675648207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2300,7 +2306,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.1220132180986274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2308,7 +2314,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.1220132180986274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2332,7 +2338,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.03538383324860195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2516,7 +2522,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.03538383324860195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2628,7 +2634,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.7851550584646675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2660,7 +2666,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-4.392475851550588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2716,7 +2722,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>-0.3244534824605997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2724,7 +2730,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-0.06964921199796746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2804,7 +2810,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1.000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3052,7 +3058,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.04514489069649216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3100,7 +3106,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>5.008337569903412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3108,7 +3114,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>-5.008337569903412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3116,7 +3122,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>-4.079816980172855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3132,7 +3138,23 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>4.079816980172855</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
